--- a/experiment result/64_0.0_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.0_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.131045460417273</v>
+        <v>0.002478223399307622</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08636781269619538</v>
+        <v>0.005551444817359352</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1151290754675773</v>
+        <v>0.01509375900579794</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1227010373819968</v>
+        <v>0.02610193711229382</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09000396861314318</v>
+        <v>0.01852345160147987</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07956425620678607</v>
+        <v>0.007625212425489316</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09000396861314318</v>
+        <v>0.01378725748291629</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266784717968517</v>
+        <v>0.01475669577239599</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1915479871542705</v>
+        <v>0.006972340346207756</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3535418784116297</v>
+        <v>0.008895659602627273</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2567921833392311</v>
+        <v>0.01494583282366022</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2475898205070008</v>
+        <v>0.02080798094687038</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03441642239446517</v>
+        <v>0.007459476402778342</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09115809562408628</v>
+        <v>0.009947632356893554</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2487202270488248</v>
+        <v>0.0150042500835465</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1626800709766845</v>
+        <v>0.0222923346919143</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.171170265941506</v>
+        <v>0.01447695455448215</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03077659293331147</v>
+        <v>0.002789303860687023</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2389951142054156</v>
+        <v>0.0171743144452197</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1274861849696415</v>
+        <v>0.01916765551671427</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1117354097023874</v>
+        <v>0.0006579627508087535</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06431566061004058</v>
+        <v>0.004996001017159947</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2428957079731673</v>
+        <v>0.01082146641482074</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.171971066130568</v>
+        <v>0.00930364249806606</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04045782609425491</v>
+        <v>0.007177992835373949</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.15725363354117</v>
+        <v>0.01976385114126193</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1823961262022056</v>
+        <v>0.01738865316293496</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201519511682465</v>
+        <v>0.01918782133756647</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1494673454468903</v>
+        <v>0.007025831989507213</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1761248075054826</v>
+        <v>0.01607980048012505</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01240681928772395</v>
+        <v>0.002745800038469342</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04406776579461354</v>
+        <v>0.01671144056072304</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1978679223132426</v>
+        <v>0.0237244321333232</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02590589320493113</v>
+        <v>0.01000598582348649</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1060566631480467</v>
+        <v>0.01568731907827208</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1185126103578208</v>
+        <v>0.01533174374797637</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.128299519845737</v>
+        <v>0.01077355400848599</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09231106089570393</v>
+        <v>0.01201493485701241</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1975841242450386</v>
+        <v>0.01493367887832843</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2399818272946944</v>
+        <v>0.006478064089390547</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2949125424039722</v>
+        <v>0.01680200528471417</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2506801168392167</v>
+        <v>0.002198077763648419</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1161019379533852</v>
+        <v>0.01542398658124818</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07956425620678607</v>
+        <v>0.007798035896758974</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1941733681478809</v>
+        <v>0.02352457673232675</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2396582784743742</v>
+        <v>0.02142354541231031</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2914561687795885</v>
+        <v>0.02110172169148957</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04406776579461354</v>
+        <v>0.00623560444116509</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07606318579017407</v>
+        <v>0.002708430424683907</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01978906664400994</v>
+        <v>0.01305178750168813</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3392842092282421</v>
+        <v>0.03540204097364919</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06785246705568417</v>
+        <v>0.03404707021234786</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001246525335938307</v>
+        <v>0.000898118831970864</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01487268991241148</v>
+        <v>0.004576565759628027</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2231449271691813</v>
+        <v>0.02631302631863702</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1786669208537472</v>
+        <v>0.03243525954617125</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06195177741461786</v>
+        <v>0.02327776469788117</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1850522701199984</v>
+        <v>0.02726856478247646</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09461351323031657</v>
+        <v>0.03070291157920834</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04526860675657388</v>
+        <v>0.01973173385923867</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01856188803708041</v>
+        <v>0.001420446904173504</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09329860055089086</v>
+        <v>0.0161278424948134</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2692705272531831</v>
+        <v>0.01969871896069784</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1594273897850642</v>
+        <v>0.02385712441886217</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2545940494605318</v>
+        <v>0.02895253119485848</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1360909274534741</v>
+        <v>0.03406601337945565</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1978411643232658</v>
+        <v>0.03562010988021636</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05244782660262297</v>
+        <v>0.02276520305278677</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04526860675657388</v>
+        <v>0.004590408159686483</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07956425620678607</v>
+        <v>0.02045776784822435</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3255360203844683</v>
+        <v>0.01632396311549899</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06076802662567526</v>
+        <v>0.01407184397492911</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1441212756359129</v>
+        <v>0.02880618510298037</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02834376296792814</v>
+        <v>0.01654839751783245</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3123328691790114</v>
+        <v>0.03634707306883354</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2754967751912655</v>
+        <v>0.02162232939470788</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0246850635028843</v>
+        <v>0.01706140476799001</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3413748913982443</v>
+        <v>0.02864930534326145</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3263604768817913</v>
+        <v>0.0341212436734526</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2103523662381766</v>
+        <v>0.03558787065210169</v>
       </c>
     </row>
   </sheetData>
